--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc206_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2128" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
+      <c r="C3" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="3">
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -599,10 +623,10 @@
       <c r="I16">
         <f>((C16-C15)^2+(D16- D15)^2)^.5</f>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="J16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L16" t="n">
@@ -646,28 +670,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s" s="3">
+      <c r="A18" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B18" t="s" s="3">
+      <c r="B18" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C18" t="s" s="3">
+      <c r="C18" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D18" t="s" s="3">
+      <c r="D18" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="E18" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F18" t="s" s="3">
+      <c r="F18" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G18" t="s" s="3">
+      <c r="G18" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H18" t="s" s="3">
+      <c r="H18" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -692,28 +716,28 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" t="s" s="3">
+      <c r="B20" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C20" t="s" s="3">
+      <c r="C20" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D20" t="s" s="3">
+      <c r="D20" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E20" t="s" s="3">
+      <c r="E20" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F20" t="s" s="3">
+      <c r="F20" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G20" t="s" s="3">
+      <c r="G20" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H20" t="s" s="3">
+      <c r="H20" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I20" t="s" s="3">
+      <c r="I20" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1033,10 +1057,10 @@
       <c r="I31">
         <f>((C31-C30)^2+(D31- D30)^2)^.5</f>
       </c>
-      <c r="J31" s="3" t="s">
+      <c r="J31" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="K31" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L31" t="n">
@@ -1080,28 +1104,28 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s" s="3">
+      <c r="A33" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B33" t="s" s="3">
+      <c r="B33" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C33" t="s" s="3">
+      <c r="C33" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D33" t="s" s="3">
+      <c r="D33" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E33" t="s" s="3">
+      <c r="E33" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F33" t="s" s="3">
+      <c r="F33" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G33" t="s" s="3">
+      <c r="G33" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H33" t="s" s="3">
+      <c r="H33" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1126,28 +1150,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="s" s="3">
+      <c r="B35" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C35" t="s" s="3">
+      <c r="C35" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D35" t="s" s="3">
+      <c r="D35" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E35" t="s" s="3">
+      <c r="E35" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F35" t="s" s="3">
+      <c r="F35" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G35" t="s" s="3">
+      <c r="G35" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H35" t="s" s="3">
+      <c r="H35" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I35" t="s" s="3">
+      <c r="I35" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1438,10 +1462,10 @@
       <c r="I45">
         <f>((C45-C44)^2+(D45- D44)^2)^.5</f>
       </c>
-      <c r="J45" s="3" t="s">
+      <c r="J45" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L45" t="n">
@@ -1485,28 +1509,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="s" s="3">
+      <c r="A47" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B47" t="s" s="3">
+      <c r="B47" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C47" t="s" s="3">
+      <c r="C47" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D47" t="s" s="3">
+      <c r="D47" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E47" t="s" s="3">
+      <c r="E47" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F47" t="s" s="3">
+      <c r="F47" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G47" t="s" s="3">
+      <c r="G47" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H47" t="s" s="3">
+      <c r="H47" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1531,28 +1555,28 @@
       </c>
     </row>
     <row r="49">
-      <c r="B49" t="s" s="3">
+      <c r="B49" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C49" t="s" s="3">
+      <c r="C49" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D49" t="s" s="3">
+      <c r="D49" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E49" t="s" s="3">
+      <c r="E49" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F49" t="s" s="3">
+      <c r="F49" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G49" t="s" s="3">
+      <c r="G49" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H49" t="s" s="3">
+      <c r="H49" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I49" t="s" s="3">
+      <c r="I49" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1843,10 +1867,10 @@
       <c r="I59">
         <f>((C59-C58)^2+(D59- D58)^2)^.5</f>
       </c>
-      <c r="J59" s="3" t="s">
+      <c r="J59" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K59" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L59" t="n">
@@ -1890,28 +1914,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="s" s="3">
+      <c r="A61" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C61" t="s" s="3">
+      <c r="C61" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D61" t="s" s="3">
+      <c r="D61" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1936,28 +1960,28 @@
       </c>
     </row>
     <row r="63">
-      <c r="B63" t="s" s="3">
+      <c r="B63" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C63" t="s" s="3">
+      <c r="C63" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D63" t="s" s="3">
+      <c r="D63" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E63" t="s" s="3">
+      <c r="E63" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F63" t="s" s="3">
+      <c r="F63" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G63" t="s" s="3">
+      <c r="G63" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H63" t="s" s="3">
+      <c r="H63" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I63" t="s" s="3">
+      <c r="I63" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2045,10 +2069,10 @@
       <c r="I66">
         <f>((C66-C65)^2+(D66- D65)^2)^.5</f>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J66" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L66" t="n">
@@ -2092,28 +2116,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="s" s="3">
+      <c r="A68" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2138,28 +2162,28 @@
       </c>
     </row>
     <row r="70">
-      <c r="B70" t="s" s="3">
+      <c r="B70" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C70" t="s" s="3">
+      <c r="C70" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D70" t="s" s="3">
+      <c r="D70" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E70" t="s" s="3">
+      <c r="E70" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F70" t="s" s="3">
+      <c r="F70" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G70" t="s" s="3">
+      <c r="G70" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H70" t="s" s="3">
+      <c r="H70" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I70" t="s" s="3">
+      <c r="I70" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2334,10 +2358,10 @@
       <c r="I76">
         <f>((C76-C75)^2+(D76- D75)^2)^.5</f>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="J76" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="K76" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L76" t="n">
@@ -2381,28 +2405,28 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="s" s="3">
+      <c r="A78" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B78" t="s" s="3">
+      <c r="B78" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C78" t="s" s="3">
+      <c r="C78" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D78" t="s" s="3">
+      <c r="D78" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E78" t="s" s="3">
+      <c r="E78" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F78" t="s" s="3">
+      <c r="F78" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G78" t="s" s="3">
+      <c r="G78" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H78" t="s" s="3">
+      <c r="H78" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2427,28 +2451,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C80" t="s" s="3">
+      <c r="C80" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D80" t="s" s="3">
+      <c r="D80" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I80" t="s" s="3">
+      <c r="I80" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2652,10 +2676,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J87" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="K87" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2699,28 +2723,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="3">
+      <c r="A89" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="3">
+      <c r="B89" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="3">
+      <c r="C89" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D89" t="s" s="3">
+      <c r="D89" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="3">
+      <c r="F89" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="3">
+      <c r="G89" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="3">
+      <c r="H89" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2745,28 +2769,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="3">
+      <c r="B91" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="3">
+      <c r="C91" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="3">
+      <c r="D91" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="3">
+      <c r="E91" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="3">
+      <c r="F91" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="3">
+      <c r="G91" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="3">
+      <c r="H91" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="3">
+      <c r="I91" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2941,10 +2965,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="3" t="s">
+      <c r="J97" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K97" s="3" t="s">
+      <c r="K97" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2988,28 +3012,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="3">
+      <c r="A99" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="3">
+      <c r="C99" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D99" t="s" s="3">
+      <c r="D99" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3034,28 +3058,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="3">
+      <c r="I101" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3288,10 +3312,10 @@
       <c r="I109">
         <f>((C109-C108)^2+(D109- D108)^2)^.5</f>
       </c>
-      <c r="J109" s="3" t="s">
+      <c r="J109" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K109" s="3" t="s">
+      <c r="K109" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L109" t="n">
@@ -3335,28 +3359,28 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="s" s="3">
+      <c r="A111" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B111" t="s" s="3">
+      <c r="B111" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C111" t="s" s="3">
+      <c r="C111" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D111" t="s" s="3">
+      <c r="D111" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E111" t="s" s="3">
+      <c r="E111" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F111" t="s" s="3">
+      <c r="F111" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G111" t="s" s="3">
+      <c r="G111" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H111" t="s" s="3">
+      <c r="H111" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3381,28 +3405,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="B113" t="s" s="3">
+      <c r="B113" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C113" t="s" s="3">
+      <c r="C113" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D113" t="s" s="3">
+      <c r="D113" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E113" t="s" s="3">
+      <c r="E113" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F113" t="s" s="3">
+      <c r="F113" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G113" t="s" s="3">
+      <c r="G113" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H113" t="s" s="3">
+      <c r="H113" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I113" t="s" s="3">
+      <c r="I113" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3548,10 +3572,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="3" t="s">
+      <c r="J118" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K118" s="3" t="s">
+      <c r="K118" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3595,28 +3619,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="3">
+      <c r="A120" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="3">
+      <c r="B120" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="3">
+      <c r="C120" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D120" t="s" s="3">
+      <c r="D120" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="3">
+      <c r="F120" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="3">
+      <c r="G120" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="3">
+      <c r="H120" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3641,28 +3665,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="3">
+      <c r="B122" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="3">
+      <c r="C122" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="3">
+      <c r="D122" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="3">
+      <c r="E122" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="3">
+      <c r="F122" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="3">
+      <c r="G122" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="3">
+      <c r="H122" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="3">
+      <c r="I122" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3837,10 +3861,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="3" t="s">
+      <c r="J128" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K128" s="3" t="s">
+      <c r="K128" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3884,28 +3908,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="3">
+      <c r="A130" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="3">
+      <c r="C130" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D130" t="s" s="3">
+      <c r="D130" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3930,28 +3954,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="3">
+      <c r="I132" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4271,10 +4295,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="3" t="s">
+      <c r="J143" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K143" s="3" t="s">
+      <c r="K143" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4318,28 +4342,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="3">
+      <c r="A145" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="3">
+      <c r="B145" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="3">
+      <c r="C145" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D145" t="s" s="3">
+      <c r="D145" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="3">
+      <c r="E145" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="3">
+      <c r="F145" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="3">
+      <c r="G145" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="3">
+      <c r="H145" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4364,28 +4388,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="3">
+      <c r="B147" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="3">
+      <c r="C147" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="3">
+      <c r="D147" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="3">
+      <c r="E147" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="3">
+      <c r="F147" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="3">
+      <c r="G147" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="3">
+      <c r="H147" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="3">
+      <c r="I147" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4473,10 +4497,10 @@
       <c r="I150">
         <f>((C150-C149)^2+(D150- D149)^2)^.5</f>
       </c>
-      <c r="J150" s="3" t="s">
+      <c r="J150" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K150" s="3" t="s">
+      <c r="K150" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L150" t="n">
@@ -4520,28 +4544,28 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="s" s="3">
+      <c r="A152" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B152" t="s" s="3">
+      <c r="B152" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C152" t="s" s="3">
+      <c r="C152" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D152" t="s" s="3">
+      <c r="D152" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E152" t="s" s="3">
+      <c r="E152" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F152" t="s" s="3">
+      <c r="F152" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G152" t="s" s="3">
+      <c r="G152" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H152" t="s" s="3">
+      <c r="H152" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4566,28 +4590,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C154" t="s" s="3">
+      <c r="C154" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D154" t="s" s="3">
+      <c r="D154" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I154" t="s" s="3">
+      <c r="I154" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4878,10 +4902,10 @@
       <c r="I164">
         <f>((C164-C163)^2+(D164- D163)^2)^.5</f>
       </c>
-      <c r="J164" s="3" t="s">
+      <c r="J164" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K164" s="3" t="s">
+      <c r="K164" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L164" t="n">
@@ -4925,28 +4949,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="s" s="3">
+      <c r="A166" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B166" t="s" s="3">
+      <c r="B166" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C166" t="s" s="3">
+      <c r="C166" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D166" t="s" s="3">
+      <c r="D166" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E166" t="s" s="3">
+      <c r="E166" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F166" t="s" s="3">
+      <c r="F166" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G166" t="s" s="3">
+      <c r="G166" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H166" t="s" s="3">
+      <c r="H166" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4971,28 +4995,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="B168" t="s" s="3">
+      <c r="B168" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C168" t="s" s="3">
+      <c r="C168" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D168" t="s" s="3">
+      <c r="D168" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E168" t="s" s="3">
+      <c r="E168" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F168" t="s" s="3">
+      <c r="F168" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G168" t="s" s="3">
+      <c r="G168" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H168" t="s" s="3">
+      <c r="H168" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I168" t="s" s="3">
+      <c r="I168" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5196,10 +5220,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="3" t="s">
+      <c r="J175" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="3" t="s">
+      <c r="K175" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5243,28 +5267,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="3">
+      <c r="A177" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="3">
+      <c r="B177" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="3">
+      <c r="C177" t="s" s="7">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="3">
+      <c r="D177" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="3">
+      <c r="E177" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="3">
+      <c r="F177" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="3">
+      <c r="G177" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="3">
+      <c r="H177" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5289,28 +5313,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="3">
+      <c r="B179" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="3">
+      <c r="C179" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="3">
+      <c r="D179" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="3">
+      <c r="E179" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="3">
+      <c r="F179" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="3">
+      <c r="G179" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="3">
+      <c r="H179" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="3">
+      <c r="I179" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5369,10 +5393,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="3" t="s">
+      <c r="J181" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="3" t="s">
+      <c r="K181" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
